--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H2">
         <v>0.168584</v>
       </c>
       <c r="I2">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J2">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N2">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q2">
-        <v>0.1504286645564444</v>
+        <v>0.1615475660817778</v>
       </c>
       <c r="R2">
-        <v>1.353857981008</v>
+        <v>1.453928094736</v>
       </c>
       <c r="S2">
-        <v>0.01860115532632409</v>
+        <v>0.005919256473475107</v>
       </c>
       <c r="T2">
-        <v>0.02647715571581075</v>
+        <v>0.008843428760285535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H3">
         <v>0.168584</v>
       </c>
       <c r="I3">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J3">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q3">
-        <v>0.6045461576266665</v>
+        <v>0.6045461576266666</v>
       </c>
       <c r="R3">
-        <v>5.440915418639999</v>
+        <v>5.44091541864</v>
       </c>
       <c r="S3">
-        <v>0.07475474845903816</v>
+        <v>0.02215114621556525</v>
       </c>
       <c r="T3">
-        <v>0.1064069989590996</v>
+        <v>0.03309403544074083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H4">
         <v>0.168584</v>
       </c>
       <c r="I4">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J4">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N4">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q4">
-        <v>0.2003191138115556</v>
+        <v>0.289258787376</v>
       </c>
       <c r="R4">
-        <v>1.802872024304</v>
+        <v>2.603329086384</v>
       </c>
       <c r="S4">
-        <v>0.02477032526897286</v>
+        <v>0.01059871709127581</v>
       </c>
       <c r="T4">
-        <v>0.03525844216513423</v>
+        <v>0.01583459003121916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H5">
         <v>0.168584</v>
       </c>
       <c r="I5">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J5">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N5">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q5">
-        <v>0.1025708606866667</v>
+        <v>0.08333758978133335</v>
       </c>
       <c r="R5">
-        <v>0.6154251641199999</v>
+        <v>0.500025538688</v>
       </c>
       <c r="S5">
-        <v>0.01268333078149166</v>
+        <v>0.003053568554213044</v>
       </c>
       <c r="T5">
-        <v>0.01203575864707876</v>
+        <v>0.003041374773429665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05619466666666666</v>
+        <v>0.05619466666666667</v>
       </c>
       <c r="H6">
         <v>0.168584</v>
       </c>
       <c r="I6">
-        <v>0.1635393031167574</v>
+        <v>0.04986276087265156</v>
       </c>
       <c r="J6">
-        <v>0.2267663493071267</v>
+        <v>0.07297477932340853</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N6">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q6">
-        <v>0.2646874071342222</v>
+        <v>0.2221577848764445</v>
       </c>
       <c r="R6">
-        <v>2.382186664208</v>
+        <v>1.999420063888</v>
       </c>
       <c r="S6">
-        <v>0.0327297432809306</v>
+        <v>0.008140072538122345</v>
       </c>
       <c r="T6">
-        <v>0.04658799382000341</v>
+        <v>0.01216135031773334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H7">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I7">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J7">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N7">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O7">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P7">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q7">
-        <v>0.7694032149339999</v>
+        <v>3.078296422789333</v>
       </c>
       <c r="R7">
-        <v>4.616419289603999</v>
+        <v>18.469778536736</v>
       </c>
       <c r="S7">
-        <v>0.09514003698537341</v>
+        <v>0.112791708781593</v>
       </c>
       <c r="T7">
-        <v>0.09028247725755757</v>
+        <v>0.1123412989261575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H8">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I8">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J8">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>32.27421</v>
       </c>
       <c r="O8">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P8">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q8">
-        <v>3.092095237469999</v>
+        <v>11.51965529144</v>
       </c>
       <c r="R8">
-        <v>18.55257142482</v>
+        <v>69.11793174863999</v>
       </c>
       <c r="S8">
-        <v>0.3823509566182771</v>
+        <v>0.4220911265326046</v>
       </c>
       <c r="T8">
-        <v>0.3628292844851631</v>
+        <v>0.4204055948092553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H9">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I9">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J9">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N9">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O9">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P9">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q9">
-        <v>1.024579794242</v>
+        <v>5.511839714063998</v>
       </c>
       <c r="R9">
-        <v>6.147478765452</v>
+        <v>33.071038284384</v>
       </c>
       <c r="S9">
-        <v>0.1266937252491361</v>
+        <v>0.2019590495824291</v>
       </c>
       <c r="T9">
-        <v>0.1202251305645262</v>
+        <v>0.2011525687931146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H10">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I10">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J10">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N10">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O10">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P10">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q10">
-        <v>0.5246230843274999</v>
+        <v>1.588001668672</v>
       </c>
       <c r="R10">
-        <v>2.09849233731</v>
+        <v>6.352006674688</v>
       </c>
       <c r="S10">
-        <v>0.06487191459237739</v>
+        <v>0.05818589153127627</v>
       </c>
       <c r="T10">
-        <v>0.04103983516943512</v>
+        <v>0.03863569231232261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.287421</v>
+        <v>1.070792</v>
       </c>
       <c r="H11">
-        <v>0.574842</v>
+        <v>2.141584</v>
       </c>
       <c r="I11">
-        <v>0.8364606968832426</v>
+        <v>0.9501372391273485</v>
       </c>
       <c r="J11">
-        <v>0.7732336506928733</v>
+        <v>0.9270252206765914</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N11">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O11">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P11">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q11">
-        <v>1.353806753534</v>
+        <v>4.233226974981333</v>
       </c>
       <c r="R11">
-        <v>8.122840521203999</v>
+        <v>25.399361849888</v>
       </c>
       <c r="S11">
-        <v>0.1674040634380787</v>
+        <v>0.1551094626994454</v>
       </c>
       <c r="T11">
-        <v>0.1588569232161914</v>
+        <v>0.1544900658357414</v>
       </c>
     </row>
   </sheetData>
